--- a/Mtube 요구사항 정의서 ver1.0.xlsx
+++ b/Mtube 요구사항 정의서 ver1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Mtube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moon\Desktop\Mtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>구분1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>MRQ_004</t>
-  </si>
-  <si>
-    <t>회원은 메일을 수정할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MRQ_005</t>
@@ -748,6 +744,14 @@
   </si>
   <si>
     <t>회원은 자신의 이름 메일 사진을 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 사진을 수정할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refactor : isRemoved컬럼 삭제하고 그냥 유저정보삭제하는 방향으로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1112,7 @@
   <dimension ref="C7:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1123,10 +1127,10 @@
   <sheetData>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>0</v>
@@ -1157,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>7</v>
@@ -1208,7 +1212,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1217,13 +1221,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1232,13 +1236,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -1247,32 +1251,34 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="15" spans="3:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1281,15 +1287,15 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1298,15 +1304,15 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1315,15 +1321,15 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1332,18 +1338,18 @@
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="66" x14ac:dyDescent="0.3">
@@ -1351,15 +1357,15 @@
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -1368,15 +1374,15 @@
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1385,13 +1391,13 @@
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -1400,13 +1406,13 @@
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
       <c r="H23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -1415,13 +1421,13 @@
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
       <c r="H24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -1430,15 +1436,15 @@
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -1447,13 +1453,13 @@
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
       <c r="H26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1462,15 +1468,15 @@
         <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -1479,15 +1485,15 @@
         <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -1496,15 +1502,15 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -1513,15 +1519,15 @@
         <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -1530,15 +1536,15 @@
         <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -1547,15 +1553,15 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -1564,15 +1570,15 @@
         <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -1581,15 +1587,15 @@
         <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -1598,15 +1604,15 @@
         <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -1615,15 +1621,15 @@
         <v>29</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -1632,13 +1638,13 @@
         <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
       <c r="H37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -1647,13 +1653,13 @@
         <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
       <c r="H38" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -1662,18 +1668,18 @@
         <v>32</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.3">
@@ -1681,13 +1687,13 @@
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="1"/>
       <c r="H40" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -1696,13 +1702,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
       <c r="H41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -1711,15 +1717,15 @@
         <v>35</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -1728,13 +1734,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
       <c r="H43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -1743,15 +1749,15 @@
         <v>37</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -1760,15 +1766,15 @@
         <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -1777,15 +1783,15 @@
         <v>39</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -1794,13 +1800,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="4"/>
       <c r="H47" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -1809,15 +1815,15 @@
         <v>41</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -1826,15 +1832,15 @@
         <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -1843,13 +1849,13 @@
         <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
       <c r="H50" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -1858,13 +1864,13 @@
         <v>44</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="4"/>
       <c r="H51" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -1873,15 +1879,15 @@
         <v>45</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -1890,13 +1896,13 @@
         <v>46</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="4"/>
       <c r="H53" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -1905,13 +1911,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
       <c r="H54" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -1920,13 +1926,13 @@
         <v>48</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="4"/>
       <c r="H55" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -1935,15 +1941,15 @@
         <v>49</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -1952,18 +1958,18 @@
         <v>50</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="I57" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="33" x14ac:dyDescent="0.3">
@@ -1971,15 +1977,15 @@
         <v>51</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -1988,15 +1994,15 @@
         <v>52</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -2005,13 +2011,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
       <c r="H60" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -2020,15 +2026,15 @@
         <v>54</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -2037,15 +2043,15 @@
         <v>55</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -2054,15 +2060,15 @@
         <v>56</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -2071,15 +2077,15 @@
         <v>57</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -2088,15 +2094,15 @@
         <v>58</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="I65" s="2"/>
     </row>
@@ -2105,15 +2111,15 @@
         <v>59</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -2122,15 +2128,15 @@
         <v>60</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -2139,15 +2145,15 @@
         <v>61</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -2156,15 +2162,15 @@
         <v>62</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -2173,15 +2179,15 @@
         <v>63</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -2190,15 +2196,15 @@
         <v>64</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -2207,13 +2213,13 @@
         <v>65</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
       <c r="H72" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -2222,13 +2228,13 @@
         <v>66</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="4"/>
       <c r="H73" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I73" s="2"/>
     </row>
